--- a/PC.xlsx
+++ b/PC.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\QLST\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
@@ -26,7 +21,7 @@
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="B11" authorId="0" shapeId="0">
+    <comment ref="B11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Phân chia</t>
   </si>
@@ -150,6 +145,9 @@
   </si>
   <si>
     <t>Xây dựng phần mềm quản lý siêu thị</t>
+  </si>
+  <si>
+    <t>Chi</t>
   </si>
 </sst>
 </file>
@@ -374,7 +372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,7 +407,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -621,7 +619,7 @@
   <dimension ref="A2:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -705,7 +703,9 @@
       <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="2:7" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
